--- a/REGULAR/CTO/BAUTISTA JANICE.xlsx
+++ b/REGULAR/CTO/BAUTISTA JANICE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>8/8,10/2022</t>
+  </si>
+  <si>
+    <t>UT(0-0-10)</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1252,12 +1255,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1421,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.3350000000000009</v>
+        <v>3.3140000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1505,11 +1508,15 @@
       <c r="A13" s="40">
         <v>44682</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C13" s="13">
         <v>1.25</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
@@ -1519,43 +1526,43 @@
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="48">
+        <v>44698</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1.25</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C14" s="13"/>
       <c r="D14" s="39">
-        <v>1</v>
+        <v>2.1000000000000005E-2</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G14" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="48">
-        <v>44735</v>
-      </c>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B15" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C15" s="13">
         <v>1.25</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="39">
+        <v>1</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
@@ -1565,88 +1572,88 @@
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="48">
+        <v>44735</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
         <v>44774</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C17" s="42">
         <v>1.25</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="42">
+      <c r="D17" s="43"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="15" t="s">
+      <c r="H17" s="43"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
         <v>44805</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B18" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C18" s="13">
         <v>1.25</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D18" s="39">
         <v>1</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="39">
-        <v>2</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="48" t="s">
-        <v>62</v>
+      <c r="K18" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
@@ -1657,18 +1664,18 @@
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="48">
-        <v>44833</v>
+      <c r="K19" s="48" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39">
-        <v>0.42099999999999999</v>
+        <v>1</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
@@ -1679,46 +1686,42 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="48"/>
+      <c r="K20" s="48">
+        <v>44833</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1.25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C21" s="13"/>
       <c r="D21" s="39">
-        <v>1</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G21" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="48">
-        <v>44838</v>
-      </c>
+      <c r="K21" s="48"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
       </c>
       <c r="D22" s="39">
-        <v>0.24399999999999999</v>
+        <v>1</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
@@ -1729,20 +1732,22 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="48">
+        <v>44838</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
       </c>
       <c r="D23" s="39">
-        <v>1</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
@@ -1753,39 +1758,43 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="48">
-        <v>44888</v>
-      </c>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="40">
+        <v>44896</v>
+      </c>
       <c r="B24" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D24" s="39">
         <v>1</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
       <c r="K24" s="48">
-        <v>44917</v>
+        <v>44888</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="20"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="39">
+        <v>1</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
@@ -1795,45 +1804,39 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="48"/>
+      <c r="K25" s="48">
+        <v>44917</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A26" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G26" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="48">
-        <v>44939</v>
-      </c>
+      <c r="K26" s="48"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
-      <c r="D27" s="39">
-        <v>1</v>
-      </c>
+      <c r="D27" s="39"/>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
@@ -1844,20 +1847,22 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
       <c r="K27" s="48">
-        <v>44974</v>
+        <v>44939</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
       </c>
-      <c r="D28" s="39"/>
+      <c r="D28" s="39">
+        <v>1</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
       <c r="G28" s="13">
@@ -1868,38 +1873,40 @@
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
       <c r="K28" s="48">
-        <v>45015</v>
+        <v>44974</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="40">
+        <v>44986</v>
+      </c>
       <c r="B29" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
       <c r="K29" s="48">
-        <v>45002</v>
+        <v>45015</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="39">
-        <v>1</v>
-      </c>
+      <c r="D30" s="39"/>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13" t="str">
@@ -1910,47 +1917,43 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="48">
-        <v>45036</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="39">
         <v>1</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G31" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="48">
-        <v>45051</v>
+        <v>45036</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
       <c r="D32" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
@@ -1961,19 +1964,23 @@
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20" t="s">
-        <v>55</v>
+      <c r="K32" s="48">
+        <v>45051</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B33" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
-      <c r="D33" s="39"/>
+      <c r="D33" s="39">
+        <v>2</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
@@ -1983,59 +1990,59 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="39">
-        <v>1</v>
-      </c>
+        <v>45078</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D34" s="39"/>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="48">
-        <v>45114</v>
-      </c>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="40">
+        <v>45108</v>
+      </c>
       <c r="B35" s="20" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="39">
+        <v>1</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H35" s="39">
-        <v>1</v>
-      </c>
+      <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="48" t="s">
-        <v>57</v>
+      <c r="K35" s="48">
+        <v>45114</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B36" s="20"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
       <c r="E36" s="9"/>
@@ -2044,14 +2051,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="39">
+        <v>1</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="48" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -2069,7 +2080,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -2087,7 +2098,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -2105,7 +2116,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -2123,7 +2134,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -2141,7 +2152,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -2159,7 +2170,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -2177,7 +2188,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -2195,7 +2206,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -2213,7 +2224,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2231,7 +2242,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2249,7 +2260,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2267,7 +2278,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2285,7 +2296,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2303,7 +2314,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2321,7 +2332,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2339,7 +2350,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2357,7 +2368,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2375,7 +2386,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2393,7 +2404,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2411,7 +2422,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2429,7 +2440,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2447,7 +2458,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2465,7 +2476,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2483,7 +2494,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2501,7 +2512,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2519,7 +2530,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2537,7 +2548,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2555,7 +2566,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2573,7 +2584,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2591,7 +2602,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2609,7 +2620,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2627,7 +2638,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2645,7 +2656,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2663,7 +2674,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2681,7 +2692,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2699,7 +2710,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2717,7 +2728,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2735,7 +2746,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2753,7 +2764,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2771,7 +2782,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2789,7 +2800,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2807,7 +2818,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2825,7 +2836,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2843,7 +2854,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2861,7 +2872,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2879,7 +2890,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2897,7 +2908,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2915,7 +2926,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2933,7 +2944,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2951,7 +2962,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2969,7 +2980,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2987,7 +2998,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3005,7 +3016,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3023,7 +3034,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3041,7 +3052,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3059,7 +3070,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3077,7 +3088,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3095,7 +3106,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3113,7 +3124,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3131,7 +3142,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3149,7 +3160,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3167,7 +3178,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3185,7 +3196,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3203,7 +3214,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3221,7 +3232,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3239,7 +3250,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3257,7 +3268,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3275,7 +3286,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3293,7 +3304,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3311,7 +3322,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3329,7 +3340,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3347,7 +3358,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3365,7 +3376,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3383,7 +3394,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3401,7 +3412,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3419,7 +3430,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3437,7 +3448,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3455,7 +3466,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3473,7 +3484,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3491,7 +3502,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3509,7 +3520,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3527,7 +3538,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3545,7 +3556,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3563,7 +3574,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3581,7 +3592,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3599,7 +3610,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3617,7 +3628,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3635,7 +3646,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3653,7 +3664,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3671,7 +3682,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3689,7 +3700,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3707,7 +3718,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3725,7 +3736,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3743,7 +3754,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3761,7 +3772,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3779,7 +3790,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3797,7 +3808,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -3815,7 +3826,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -3833,21 +3844,39 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
+        <v>48153</v>
+      </c>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="40">
         <v>48183</v>
       </c>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3958,14 +3987,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.42099999999999999</v>
+        <v>2.1000000000000005E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/BAUTISTA JANICE.xlsx
+++ b/REGULAR/CTO/BAUTISTA JANICE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -174,9 +174,6 @@
     </r>
   </si>
   <si>
-    <t>UL(1-0-00)</t>
-  </si>
-  <si>
     <t>SP(2-0-00)</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>7/25.2023</t>
   </si>
   <si>
-    <t>UT(0-1-57)</t>
-  </si>
-  <si>
     <t>A(1-0-0)</t>
   </si>
   <si>
@@ -235,6 +229,12 @@
   </si>
   <si>
     <t>UT(0-0-10)</t>
+  </si>
+  <si>
+    <t>VL(1-0-00)</t>
+  </si>
+  <si>
+    <t>UT(0-0-57)</t>
   </si>
 </sst>
 </file>
@@ -1258,9 +1258,9 @@
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A9" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
@@ -1322,14 +1322,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
@@ -1421,7 +1421,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>3.3140000000000001</v>
+        <v>6.1890000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1431,7 +1431,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>19</v>
+        <v>22.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1483,7 +1483,7 @@
         <v>44652</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C12" s="13">
         <v>1.25</v>
@@ -1501,7 +1501,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>44682</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="13">
         <v>1.25</v>
@@ -1533,7 +1533,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="39">
@@ -1555,7 +1555,7 @@
         <v>44713</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C15" s="13">
         <v>1.25</v>
@@ -1601,7 +1601,7 @@
         <v>44774</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="42">
         <v>1.25</v>
@@ -1617,7 +1617,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="12"/>
       <c r="K17" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
         <v>44805</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
@@ -1643,13 +1643,13 @@
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39">
@@ -1665,13 +1665,13 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39">
@@ -1693,7 +1693,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39">
@@ -1715,7 +1715,7 @@
         <v>44835</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -1741,13 +1741,13 @@
         <v>44866</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
       </c>
       <c r="D23" s="39">
-        <v>0.24399999999999999</v>
+        <v>0.11900000000000001</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
@@ -1765,7 +1765,7 @@
         <v>44896</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="13">
         <v>1.25</v>
@@ -1789,7 +1789,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39">
@@ -1810,7 +1810,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -1831,7 +1831,7 @@
         <v>44927</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -1855,7 +1855,7 @@
         <v>44958</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -1881,7 +1881,7 @@
         <v>44986</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="13">
         <v>1.25</v>
@@ -1903,7 +1903,7 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -1923,7 +1923,7 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
@@ -1947,7 +1947,7 @@
         <v>45017</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -1973,7 +1973,7 @@
         <v>45047</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
@@ -1991,7 +1991,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2019,17 +2019,19 @@
         <v>45108</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D35" s="39">
         <v>1</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G35" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
@@ -2041,7 +2043,7 @@
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -2057,7 +2059,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2065,13 +2067,15 @@
         <v>45139</v>
       </c>
       <c r="B37" s="20"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G37" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
@@ -2082,27 +2086,37 @@
       <c r="A38" s="40">
         <v>45170</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="48">
+        <v>45187</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>45200</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="39"/>
+      <c r="D39" s="39">
+        <v>1</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13" t="str">
@@ -2112,7 +2126,9 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
+      <c r="K39" s="48">
+        <v>45198</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
@@ -3990,11 +4006,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.1000000000000005E-2</v>
+        <v>0.11900000000000001</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/BAUTISTA JANICE.xlsx
+++ b/REGULAR/CTO/BAUTISTA JANICE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1260,7 +1260,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1421,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.4390000000000001</v>
+        <v>8.9390000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1431,7 +1431,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>22</v>
+        <v>23.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2183,13 +2183,15 @@
       <c r="B42" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D42" s="39"/>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H42" s="39">
         <v>1</v>
@@ -2204,19 +2206,27 @@
       <c r="A43" s="40">
         <v>45261</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H43" s="39"/>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H43" s="39">
+        <v>1</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="48">
+        <v>45281</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">

--- a/REGULAR/CTO/BAUTISTA JANICE.xlsx
+++ b/REGULAR/CTO/BAUTISTA JANICE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -213,9 +213,6 @@
     <t>SL(1-0-0)</t>
   </si>
   <si>
-    <t>7/25.2023</t>
-  </si>
-  <si>
     <t>A(1-0-0)</t>
   </si>
   <si>
@@ -235,6 +232,21 @@
   </si>
   <si>
     <t>UT(0-0-57)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-2-13)</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-1-0)</t>
   </si>
 </sst>
 </file>
@@ -926,7 +938,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1255,12 +1267,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K139"/>
+  <dimension ref="A2:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1433,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>8.9390000000000001</v>
+        <v>7.0329999999999977</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1483,7 +1495,7 @@
         <v>44652</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="13">
         <v>1.25</v>
@@ -1509,7 +1521,7 @@
         <v>44682</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="13">
         <v>1.25</v>
@@ -1533,7 +1545,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="39">
@@ -1617,7 +1629,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="12"/>
       <c r="K17" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1665,7 +1677,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1693,7 +1705,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39">
@@ -1741,7 +1753,7 @@
         <v>44866</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
@@ -2058,19 +2070,23 @@
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="48" t="s">
-        <v>56</v>
+      <c r="K36" s="48">
+        <v>45132</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>45139</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C37" s="13">
         <v>1.25</v>
       </c>
-      <c r="D37" s="39"/>
+      <c r="D37" s="39">
+        <v>1</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
@@ -2080,45 +2096,41 @@
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="48">
+        <v>45149</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="39"/>
+        <v>67</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="39">
+        <v>0.125</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="48">
-        <v>45187</v>
-      </c>
+      <c r="K38" s="48"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="13">
         <v>1.25</v>
       </c>
-      <c r="D39" s="39">
-        <v>1</v>
-      </c>
+      <c r="D39" s="39"/>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13">
@@ -2129,17 +2141,17 @@
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
       <c r="K39" s="48">
-        <v>45198</v>
+        <v>45187</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
@@ -2150,74 +2162,68 @@
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="48">
-        <v>45219</v>
-      </c>
+      <c r="K40" s="48"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="40">
+        <v>45200</v>
+      </c>
       <c r="B41" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="39"/>
+        <v>52</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="39">
+        <v>1</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H41" s="39">
-        <v>1</v>
-      </c>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
       <c r="K41" s="48">
-        <v>45226</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D42" s="39"/>
+        <v>44</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="39">
+        <v>1</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H42" s="39">
-        <v>1</v>
-      </c>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
       <c r="K42" s="48">
-        <v>45236</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C43" s="13"/>
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H43" s="39">
         <v>1</v>
@@ -2225,34 +2231,44 @@
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
       <c r="K43" s="48">
-        <v>45281</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D44" s="39"/>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H44" s="39"/>
+      <c r="G44" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H44" s="39">
+        <v>1</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="K44" s="48">
+        <v>45236</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B45" s="20"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="39"/>
+      <c r="D45" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
       <c r="G45" s="13" t="str">
@@ -2262,33 +2278,43 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="48"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H46" s="39"/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H46" s="39">
+        <v>1</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="48">
+        <v>45281</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B47" s="20"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="39"/>
+      <c r="D47" s="39">
+        <v>0.27700000000000002</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13" t="str">
@@ -2298,11 +2324,11 @@
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
+      <c r="K47" s="48"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="40">
-        <v>45413</v>
+      <c r="A48" s="49" t="s">
+        <v>63</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2316,11 +2342,11 @@
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45444</v>
+        <v>45292</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2338,7 +2364,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2356,7 +2382,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2374,7 +2400,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2392,7 +2418,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2410,7 +2436,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2428,7 +2454,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2446,7 +2472,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2464,7 +2490,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2482,7 +2508,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45717</v>
+        <v>45566</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2500,7 +2526,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45748</v>
+        <v>45597</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2518,7 +2544,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2536,7 +2562,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45809</v>
+        <v>45658</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2554,7 +2580,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45839</v>
+        <v>45689</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2572,7 +2598,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45870</v>
+        <v>45717</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2590,7 +2616,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45901</v>
+        <v>45748</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2608,7 +2634,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2626,7 +2652,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2644,7 +2670,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45992</v>
+        <v>45839</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2662,7 +2688,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>46023</v>
+        <v>45870</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2680,7 +2706,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>46054</v>
+        <v>45901</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2698,7 +2724,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>46082</v>
+        <v>45931</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2716,7 +2742,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>46113</v>
+        <v>45962</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2734,7 +2760,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>46143</v>
+        <v>45992</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2752,7 +2778,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2770,7 +2796,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46204</v>
+        <v>46054</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2788,7 +2814,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46235</v>
+        <v>46082</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2806,7 +2832,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46266</v>
+        <v>46113</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2824,7 +2850,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46296</v>
+        <v>46143</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2842,7 +2868,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46327</v>
+        <v>46174</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2860,7 +2886,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46357</v>
+        <v>46204</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2878,7 +2904,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46388</v>
+        <v>46235</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2896,7 +2922,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46419</v>
+        <v>46266</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2914,7 +2940,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46447</v>
+        <v>46296</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2932,7 +2958,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46478</v>
+        <v>46327</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2950,7 +2976,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46508</v>
+        <v>46357</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2968,7 +2994,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46539</v>
+        <v>46388</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2986,7 +3012,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46569</v>
+        <v>46419</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3004,7 +3030,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46600</v>
+        <v>46447</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3022,7 +3048,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46631</v>
+        <v>46478</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3040,7 +3066,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46661</v>
+        <v>46508</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3058,7 +3084,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46692</v>
+        <v>46539</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3076,7 +3102,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46722</v>
+        <v>46569</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3094,7 +3120,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46753</v>
+        <v>46600</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3112,7 +3138,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46784</v>
+        <v>46631</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3130,7 +3156,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46813</v>
+        <v>46661</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3148,7 +3174,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46844</v>
+        <v>46692</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3166,7 +3192,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46874</v>
+        <v>46722</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3184,7 +3210,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46905</v>
+        <v>46753</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3202,7 +3228,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46935</v>
+        <v>46784</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3220,7 +3246,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46966</v>
+        <v>46813</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3238,7 +3264,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46997</v>
+        <v>46844</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3256,7 +3282,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>47027</v>
+        <v>46874</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3274,7 +3300,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>47058</v>
+        <v>46905</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3292,7 +3318,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>47088</v>
+        <v>46935</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3310,7 +3336,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>47119</v>
+        <v>46966</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3328,7 +3354,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>47150</v>
+        <v>46997</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3346,7 +3372,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>47178</v>
+        <v>47027</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3364,7 +3390,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>47209</v>
+        <v>47058</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3382,7 +3408,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>47239</v>
+        <v>47088</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3400,7 +3426,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>47270</v>
+        <v>47119</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3418,7 +3444,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>47300</v>
+        <v>47150</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3436,7 +3462,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47331</v>
+        <v>47178</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3454,7 +3480,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47362</v>
+        <v>47209</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3472,7 +3498,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47392</v>
+        <v>47239</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3490,7 +3516,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47423</v>
+        <v>47270</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3508,7 +3534,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>47453</v>
+        <v>47300</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3526,7 +3552,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47484</v>
+        <v>47331</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3544,7 +3570,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47515</v>
+        <v>47362</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3562,7 +3588,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47543</v>
+        <v>47392</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3580,7 +3606,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>47574</v>
+        <v>47423</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3598,7 +3624,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>47604</v>
+        <v>47453</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3616,7 +3642,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>47635</v>
+        <v>47484</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3634,7 +3660,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>47665</v>
+        <v>47515</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3652,7 +3678,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>47696</v>
+        <v>47543</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3670,7 +3696,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>47727</v>
+        <v>47574</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3688,7 +3714,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>47757</v>
+        <v>47604</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3706,7 +3732,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>47788</v>
+        <v>47635</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3724,7 +3750,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>47818</v>
+        <v>47665</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3742,7 +3768,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>47849</v>
+        <v>47696</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3760,7 +3786,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>47880</v>
+        <v>47727</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3778,7 +3804,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>47908</v>
+        <v>47757</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3796,7 +3822,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>47939</v>
+        <v>47788</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3814,7 +3840,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>47969</v>
+        <v>47818</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3832,7 +3858,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>48000</v>
+        <v>47849</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3850,7 +3876,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>48030</v>
+        <v>47880</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -3868,7 +3894,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>48061</v>
+        <v>47908</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -3886,7 +3912,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>48092</v>
+        <v>47939</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -3904,7 +3930,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>48122</v>
+        <v>47969</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -3922,7 +3948,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>48153</v>
+        <v>48000</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -3940,21 +3966,111 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
+        <v>48030</v>
+      </c>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="40">
+        <v>48061</v>
+      </c>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="40">
+        <v>48092</v>
+      </c>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="40">
+        <v>48122</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="40">
+        <v>48153</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40">
         <v>48183</v>
       </c>
-      <c r="B139" s="15"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="43"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="43"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="43"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4065,14 +4181,12 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>57</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.11900000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/BAUTISTA JANICE.xlsx
+++ b/REGULAR/CTO/BAUTISTA JANICE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>UT(0-1-0)</t>
+  </si>
+  <si>
+    <t>UT(1-0-20)</t>
+  </si>
+  <si>
+    <t>UT(0-0-47)</t>
+  </si>
+  <si>
+    <t>UT(0-2-0)</t>
   </si>
 </sst>
 </file>
@@ -938,7 +947,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1267,12 +1276,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K144"/>
+  <dimension ref="A2:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1442,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.0329999999999977</v>
+        <v>5.6429999999999971</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1889,58 +1898,56 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D29" s="39"/>
+        <v>70</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="48">
-        <v>45015</v>
-      </c>
+      <c r="K29" s="48"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="40">
+        <v>44986</v>
+      </c>
       <c r="B30" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="48">
-        <v>45002</v>
+        <v>45015</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="39">
-        <v>1</v>
-      </c>
+      <c r="D31" s="39"/>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13" t="str">
@@ -1951,70 +1958,64 @@
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="48">
-        <v>45036</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="13">
-        <v>1.25</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="39">
         <v>1</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G32" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
       <c r="K32" s="48">
-        <v>45051</v>
+        <v>45036</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="13">
-        <v>1.25</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C33" s="13"/>
       <c r="D33" s="39">
-        <v>2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G33" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="K33" s="48"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B34" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C34" s="13">
         <v>1.25</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="39">
+        <v>1</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
@@ -2024,20 +2025,22 @@
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="48">
+        <v>45051</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
       <c r="D35" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
@@ -2048,45 +2051,39 @@
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="48">
-        <v>45114</v>
+      <c r="K35" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="39"/>
+      <c r="D36" s="39">
+        <v>1.042</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H36" s="39">
-        <v>1</v>
-      </c>
+      <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="48">
-        <v>45132</v>
-      </c>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>45078</v>
+      </c>
+      <c r="B37" s="20"/>
       <c r="C37" s="13">
         <v>1.25</v>
       </c>
-      <c r="D37" s="39">
-        <v>1</v>
-      </c>
+      <c r="D37" s="39"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
@@ -2096,178 +2093,180 @@
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="48">
-        <v>45149</v>
-      </c>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="40">
+        <v>45108</v>
+      </c>
       <c r="B38" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D38" s="39">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="48"/>
+      <c r="K38" s="48">
+        <v>45114</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="13">
-        <v>1.25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C39" s="13"/>
       <c r="D39" s="39"/>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H39" s="39"/>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H39" s="39">
+        <v>1</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
       <c r="K39" s="48">
-        <v>45187</v>
+        <v>45132</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="40">
+        <v>45139</v>
+      </c>
       <c r="B40" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D40" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G40" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="48"/>
+      <c r="K40" s="48">
+        <v>45149</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="13">
-        <v>1.25</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C41" s="13"/>
       <c r="D41" s="39">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="48">
-        <v>45198</v>
-      </c>
+      <c r="K41" s="48"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="40">
+        <v>45170</v>
+      </c>
       <c r="B42" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="39">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C42" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D42" s="39"/>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
       <c r="K42" s="48">
-        <v>45219</v>
+        <v>45187</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="39"/>
+      <c r="D43" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
       <c r="G43" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H43" s="39">
-        <v>1</v>
-      </c>
+      <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="48">
-        <v>45226</v>
-      </c>
+      <c r="K43" s="48"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
-      <c r="D44" s="39"/>
+      <c r="D44" s="39">
+        <v>1</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H44" s="39">
-        <v>1</v>
-      </c>
+      <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
       <c r="K44" s="48">
-        <v>45236</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="39">
-        <v>4.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
@@ -2278,24 +2277,22 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="48"/>
+      <c r="K45" s="48">
+        <v>45219</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C46" s="13"/>
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G46" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H46" s="39">
         <v>1</v>
@@ -2303,36 +2300,44 @@
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
       <c r="K46" s="48">
-        <v>45281</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="40">
+        <v>45231</v>
+      </c>
       <c r="B47" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="39">
-        <v>0.27700000000000002</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D47" s="39"/>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H47" s="39"/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H47" s="39">
+        <v>1</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="48"/>
+      <c r="K47" s="48">
+        <v>45236</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="20"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13" t="str">
@@ -2346,29 +2351,39 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H49" s="39"/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H49" s="39">
+        <v>1</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="48">
+        <v>45281</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B50" s="20"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="39"/>
+      <c r="D50" s="39">
+        <v>0.27700000000000002</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13" t="str">
@@ -2378,11 +2393,11 @@
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="48"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
-        <v>45352</v>
+      <c r="A51" s="49" t="s">
+        <v>63</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2396,11 +2411,11 @@
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="48"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2418,7 +2433,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2436,7 +2451,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2454,7 +2469,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2472,7 +2487,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2490,7 +2505,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2508,7 +2523,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2526,7 +2541,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2544,7 +2559,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2562,7 +2577,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2580,7 +2595,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2598,7 +2613,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2616,7 +2631,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2634,7 +2649,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2652,7 +2667,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2670,7 +2685,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2688,7 +2703,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2706,7 +2721,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2724,7 +2739,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2742,7 +2757,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2760,7 +2775,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2778,7 +2793,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2796,7 +2811,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2814,7 +2829,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2832,7 +2847,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2850,7 +2865,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46143</v>
+        <v>46054</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2868,7 +2883,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46174</v>
+        <v>46082</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2886,7 +2901,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46204</v>
+        <v>46113</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2904,7 +2919,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46235</v>
+        <v>46143</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2922,7 +2937,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46266</v>
+        <v>46174</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2940,7 +2955,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46296</v>
+        <v>46204</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2958,7 +2973,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46327</v>
+        <v>46235</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2976,7 +2991,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46357</v>
+        <v>46266</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2994,7 +3009,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46388</v>
+        <v>46296</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3012,7 +3027,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46419</v>
+        <v>46327</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3030,7 +3045,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46447</v>
+        <v>46357</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3048,7 +3063,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46478</v>
+        <v>46388</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3066,7 +3081,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46508</v>
+        <v>46419</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3084,7 +3099,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46539</v>
+        <v>46447</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3102,7 +3117,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46569</v>
+        <v>46478</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3120,7 +3135,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46600</v>
+        <v>46508</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3138,7 +3153,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46631</v>
+        <v>46539</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3156,7 +3171,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46661</v>
+        <v>46569</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3174,7 +3189,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46692</v>
+        <v>46600</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3192,7 +3207,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46722</v>
+        <v>46631</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3210,7 +3225,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46753</v>
+        <v>46661</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3228,7 +3243,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46784</v>
+        <v>46692</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3246,7 +3261,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46813</v>
+        <v>46722</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3264,7 +3279,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46844</v>
+        <v>46753</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3282,7 +3297,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46874</v>
+        <v>46784</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3300,7 +3315,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46905</v>
+        <v>46813</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3318,7 +3333,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46935</v>
+        <v>46844</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3336,7 +3351,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46966</v>
+        <v>46874</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3354,7 +3369,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46997</v>
+        <v>46905</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3372,7 +3387,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>47027</v>
+        <v>46935</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3390,7 +3405,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>47058</v>
+        <v>46966</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3408,7 +3423,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>47088</v>
+        <v>46997</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3426,7 +3441,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>47119</v>
+        <v>47027</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3444,7 +3459,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>47150</v>
+        <v>47058</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3462,7 +3477,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47178</v>
+        <v>47088</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3480,7 +3495,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47209</v>
+        <v>47119</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3498,7 +3513,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47239</v>
+        <v>47150</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3516,7 +3531,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47270</v>
+        <v>47178</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3534,7 +3549,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>47300</v>
+        <v>47209</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3552,7 +3567,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47331</v>
+        <v>47239</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3570,7 +3585,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47362</v>
+        <v>47270</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3588,7 +3603,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47392</v>
+        <v>47300</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3606,7 +3621,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>47423</v>
+        <v>47331</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3624,7 +3639,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>47453</v>
+        <v>47362</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3642,7 +3657,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>47484</v>
+        <v>47392</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3660,7 +3675,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>47515</v>
+        <v>47423</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3678,7 +3693,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>47543</v>
+        <v>47453</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3696,7 +3711,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>47574</v>
+        <v>47484</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3714,7 +3729,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>47604</v>
+        <v>47515</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3732,7 +3747,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>47635</v>
+        <v>47543</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3750,7 +3765,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>47665</v>
+        <v>47574</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3768,7 +3783,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>47696</v>
+        <v>47604</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3786,7 +3801,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>47727</v>
+        <v>47635</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3804,7 +3819,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>47757</v>
+        <v>47665</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3822,7 +3837,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>47788</v>
+        <v>47696</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3840,7 +3855,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>47818</v>
+        <v>47727</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3858,7 +3873,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>47849</v>
+        <v>47757</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3876,7 +3891,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>47880</v>
+        <v>47788</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -3894,7 +3909,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>47908</v>
+        <v>47818</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -3912,7 +3927,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>47939</v>
+        <v>47849</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -3930,7 +3945,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>47969</v>
+        <v>47880</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -3948,7 +3963,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>48000</v>
+        <v>47908</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -3966,7 +3981,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>48030</v>
+        <v>47939</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -3984,7 +3999,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>48061</v>
+        <v>47969</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4002,7 +4017,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>48092</v>
+        <v>48000</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4020,7 +4035,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>48122</v>
+        <v>48030</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4038,7 +4053,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>48153</v>
+        <v>48061</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4056,21 +4071,75 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
+        <v>48092</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="40">
+        <v>48122</v>
+      </c>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="40">
+        <v>48153</v>
+      </c>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="40">
         <v>48183</v>
       </c>
-      <c r="B144" s="15"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="43"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="43"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="15"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="43"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4181,12 +4250,12 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/BAUTISTA JANICE.xlsx
+++ b/REGULAR/CTO/BAUTISTA JANICE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1279,9 +1279,9 @@
   <dimension ref="A2:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A31" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1442,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.6429999999999971</v>
+        <v>6.8929999999999971</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1452,7 +1452,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>23.5</v>
+        <v>24.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2417,19 +2417,25 @@
       <c r="A52" s="40">
         <v>45292</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="48">
+        <v>45336</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
